--- a/Data/CRPS.xlsx
+++ b/Data/CRPS.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\Documents\GitHub\Master-Thesis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B19685-F0EF-4278-A035-107687353327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7861FEF7-7A03-4B8E-B7AA-E08A6AB617D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{30C101EE-CA3A-40F3-A490-B6665347AC1D}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="2" xr2:uid="{30C101EE-CA3A-40F3-A490-B6665347AC1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Approx" sheetId="1" r:id="rId1"/>
     <sheet name="Exact" sheetId="2" r:id="rId2"/>
+    <sheet name="Exact 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="16">
   <si>
     <t>Seasonal WeiSSVM</t>
   </si>
@@ -70,15 +71,28 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>SINMOD WeiSSVM</t>
+  </si>
+  <si>
+    <t>SINMOD HTLP</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>Spring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -109,10 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,6 +453,7 @@
     <col min="2" max="2" width="15.7890625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.7890625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -719,10 +735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBBA6A6-2FE4-40CA-A0C8-A786E25CC36E}">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="B8:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -730,6 +746,7 @@
     <col min="2" max="2" width="15.7890625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.7890625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -768,6 +785,12 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="1">
+        <v>0.12449350000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.12980120000000001</v>
+      </c>
       <c r="E3" s="1">
         <v>0.1262567</v>
       </c>
@@ -776,6 +799,12 @@
       </c>
       <c r="H3" t="s">
         <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7.4269519999999997E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>7.2925719999999998E-3</v>
       </c>
       <c r="K3" s="2">
         <v>1.144531E-2</v>
@@ -826,6 +855,12 @@
       <c r="D5" s="1">
         <v>0.13727800000000001</v>
       </c>
+      <c r="E5" s="1">
+        <v>0.13944719999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.13563929999999999</v>
+      </c>
       <c r="H5" t="s">
         <v>2</v>
       </c>
@@ -834,6 +869,12 @@
       </c>
       <c r="J5" s="2">
         <v>7.7259720000000002E-3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1.0351279999999999E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>8.5248219999999996E-3</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -868,67 +909,420 @@
         <v>9.2724529999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" t="s">
-        <v>7</v>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.1084801</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.103368</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.3187839999999999E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2.1439960000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.1045436</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9.704256E-2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.4853979999999999E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2.2132639999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
         <v>3</v>
       </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6545927-88D2-47E9-8137-B290D5EEE5BD}">
+  <dimension ref="B2:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="15.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.7890625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.12449350000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.12980120000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.1262567</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.1211168</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>7.4269519999999997E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>8.3106039999999992E-3</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.143424E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8.5248219999999996E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.13022700000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1461047</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.12699530000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.12894720000000001</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>7.3323529999999998E-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>7.2925719999999998E-3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1.0351279999999999E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>7.889699E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.1330112</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.13727800000000001</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.13944719999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.13563929999999999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>8.2207419999999996E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>8.8721660000000008E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.144531E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>9.2724529999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.12582560000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1305191</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.12941150000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.12896650000000001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3">
+        <v>7.2522380000000003E-3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>7.7259720000000002E-3</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.075124E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>8.1557899999999996E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.1045436</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9.704256E-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.3187839999999999E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2.1439960000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.1084801</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.103368</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.4853979999999999E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2.2132639999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
       <c r="H15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
         <v>3</v>
       </c>
     </row>
